--- a/要求分析/非機能要求一覧.xlsx
+++ b/要求分析/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244F632-8C8F-4B09-BD1B-E92CE14D2ED7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40645E13-1620-467B-8593-474CF9F45AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -391,33 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ログイン機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>データベースに変更しやすくする</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FindBugsを参考にバグになりうる記述を減らす</t>
-    <rPh sb="9" eb="11">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>予約内容を他人に変更されないようにする</t>
     <rPh sb="0" eb="2">
       <t>ヨヤク</t>
@@ -434,30 +407,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>CUIをGUIに変更しやすくする</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>データベースを想定してテーブルごとにリストを作る</t>
-    <rPh sb="7" eb="9">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メニューを作成する</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>バグにつながる記述をなくす</t>
     <rPh sb="7" eb="9">
       <t>キジュツ</t>
@@ -465,25 +414,51 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>わかりやすく使いやすいシステムにする</t>
-    <rPh sb="6" eb="7">
+    <t>メニュー画面を表示して、機能の使いやすいシステムにする</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>メニューの作成と表示の体裁を整える</t>
+    <t>コードの記述ルールを決めて、変更しやすくする</t>
+    <rPh sb="4" eb="6">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CUIからGUIに変更しやすくする</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チケット・会員・予約の情報をデータベースに変更しやすくする</t>
     <rPh sb="5" eb="7">
-      <t>サクセイ</t>
+      <t>カイイン</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
+      <t>ヨヤク</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>テイサイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トトノ</t>
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -774,6 +749,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,12 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1172,8 +1147,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1572,21 +1547,21 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1607,11 +1582,9 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
@@ -1645,11 +1618,9 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
@@ -1711,24 +1682,24 @@
       <c r="D20" s="15"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>40</v>
-      </c>
+      <c r="D21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1749,17 +1720,15 @@
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
@@ -1769,9 +1738,7 @@
       <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
@@ -2208,10 +2175,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2221,11 +2188,11 @@
     </row>
     <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="23"/>
       <c r="F7" s="4" t="s">
         <v>4</v>
@@ -2371,6 +2338,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2540,22 +2522,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2571,21 +2555,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/要求分析/非機能要求一覧.xlsx
+++ b/要求分析/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40645E13-1620-467B-8593-474CF9F45AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67A6F22-0A7B-4C6C-830B-A2ABCC815473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -391,29 +391,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>予約内容を他人に変更されないようにする</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タニン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>バグにつながる記述をなくす</t>
-    <rPh sb="7" eb="9">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>メニュー画面を表示して、機能の使いやすいシステムにする</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -430,16 +407,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コードの記述ルールを決めて、変更しやすくする</t>
-    <rPh sb="4" eb="6">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>CUIからGUIに変更しやすくする</t>
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
@@ -459,6 +426,32 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>拡張機能の開発をしやすくする</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーを減らし品質を高める</t>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1581,9 +1574,7 @@
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1618,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -1627,7 +1618,9 @@
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1688,7 +1681,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="27"/>
     </row>
@@ -1698,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="8"/>
     </row>
@@ -1726,7 +1719,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25" s="12"/>
     </row>
@@ -1734,9 +1727,6 @@
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E26" s="12"/>
     </row>

--- a/要求分析/非機能要求一覧.xlsx
+++ b/要求分析/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67A6F22-0A7B-4C6C-830B-A2ABCC815473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E165AA11-1F80-4B91-A6D9-85F2D2F1A972}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -452,6 +452,26 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FindBugsを用いて、エラーになりうるコードを減らす</t>
+    <rPh sb="9" eb="10">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機能ごとにクラスを分ける</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1140,8 +1160,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1150,7 +1170,7 @@
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="83.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
     <col min="6" max="256" width="3.625" style="1"/>
     <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
     <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
@@ -1683,7 +1703,9 @@
       <c r="D21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -1693,7 +1715,9 @@
       <c r="D22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
@@ -2328,18 +2352,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2513,18 +2537,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
